--- a/Pre and Post Concussion Injury Data.xlsx
+++ b/Pre and Post Concussion Injury Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylerfue\Desktop\Pacers Internship Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4AAF4-7D65-47F7-AF38-E69DCD879649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD47B686-C388-4C90-9CF0-B571A995618F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E75CC67-1FB6-4A52-A944-DA10869B5194}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="140">
   <si>
     <t>Team</t>
   </si>
@@ -44,18 +44,12 @@
     <t>Games Missed out of Previous 82</t>
   </si>
   <si>
-    <t>2010-12-20</t>
-  </si>
-  <si>
     <t>Bucks</t>
   </si>
   <si>
     <t>Carlos Delfino</t>
   </si>
   <si>
-    <t>2011-02-25</t>
-  </si>
-  <si>
     <t>2011-02-27</t>
   </si>
   <si>
@@ -65,114 +59,72 @@
     <t>Gary Neal</t>
   </si>
   <si>
-    <t>2011-02-26</t>
-  </si>
-  <si>
     <t>Ersan Ilyasova</t>
   </si>
   <si>
-    <t>2011-03-07</t>
-  </si>
-  <si>
     <t>Hornets</t>
   </si>
   <si>
     <t>Chris Paul</t>
   </si>
   <si>
-    <t>2011-04-11</t>
-  </si>
-  <si>
     <t>Warriors</t>
   </si>
   <si>
     <t>Monta Ellis</t>
   </si>
   <si>
-    <t>2012-01-13</t>
-  </si>
-  <si>
     <t>Andrew Bogut</t>
   </si>
   <si>
-    <t>2012-01-18</t>
-  </si>
-  <si>
     <t>Pacers</t>
   </si>
   <si>
     <t>Jeff Ayres</t>
   </si>
   <si>
-    <t>2012-02-06</t>
-  </si>
-  <si>
     <t>Jason Smith</t>
   </si>
   <si>
-    <t>2012-02-08</t>
-  </si>
-  <si>
     <t>Cavaliers</t>
   </si>
   <si>
     <t>Kyrie Irving</t>
   </si>
   <si>
-    <t>2012-03-03</t>
-  </si>
-  <si>
     <t>Mavericks</t>
   </si>
   <si>
     <t>Brandan Wright</t>
   </si>
   <si>
-    <t>2012-03-13</t>
-  </si>
-  <si>
     <t>Grizzlies</t>
   </si>
   <si>
     <t>Rudy Gay</t>
   </si>
   <si>
-    <t>2012-03-30</t>
-  </si>
-  <si>
     <t>Nets</t>
   </si>
   <si>
     <t>Jordan Williams</t>
   </si>
   <si>
-    <t>2012-04-04</t>
-  </si>
-  <si>
     <t>Chris Johnson</t>
   </si>
   <si>
-    <t>2012-04-08</t>
-  </si>
-  <si>
     <t>Kings</t>
   </si>
   <si>
     <t>Francisco Garcia</t>
   </si>
   <si>
-    <t>2012-04-12</t>
-  </si>
-  <si>
     <t>Timberwolves</t>
   </si>
   <si>
     <t>Kevin Love</t>
   </si>
   <si>
-    <t>2012-04-16</t>
-  </si>
-  <si>
     <t>Bobcats</t>
   </si>
   <si>
@@ -185,204 +137,114 @@
     <t>Gustavo Ayon</t>
   </si>
   <si>
-    <t>2012-11-03</t>
-  </si>
-  <si>
     <t>Anthony Davis</t>
   </si>
   <si>
-    <t>2012-11-30</t>
-  </si>
-  <si>
     <t>Jazz</t>
   </si>
   <si>
     <t>Marvin Williams</t>
   </si>
   <si>
-    <t>2012-12-15</t>
-  </si>
-  <si>
     <t>Darrell Arthur</t>
   </si>
   <si>
-    <t>2013-01-02</t>
-  </si>
-  <si>
     <t>Celtics</t>
   </si>
   <si>
     <t>Fab Melo</t>
   </si>
   <si>
-    <t>2013-01-08</t>
-  </si>
-  <si>
     <t>Lakers</t>
   </si>
   <si>
     <t>Pau Gasol</t>
   </si>
   <si>
-    <t>2013-01-28</t>
-  </si>
-  <si>
     <t>Tornike Shengelia</t>
   </si>
   <si>
-    <t>2013-03-20</t>
-  </si>
-  <si>
     <t>Magic</t>
   </si>
   <si>
     <t>Nikola Vucevic</t>
   </si>
   <si>
-    <t>2013-03-30</t>
-  </si>
-  <si>
     <t>Hawks</t>
   </si>
   <si>
     <t>John Jenkins</t>
   </si>
   <si>
-    <t>2013-04-09</t>
-  </si>
-  <si>
     <t>C.J. Miles</t>
   </si>
   <si>
-    <t>2014-01-08</t>
-  </si>
-  <si>
-    <t>2014-02-22</t>
-  </si>
-  <si>
     <t>Jared Sullinger</t>
   </si>
   <si>
-    <t>2014-10-28</t>
-  </si>
-  <si>
     <t>Wayne Ellington</t>
   </si>
   <si>
-    <t>2014-11-17</t>
-  </si>
-  <si>
-    <t>2014-12-23</t>
-  </si>
-  <si>
     <t>Heat</t>
   </si>
   <si>
     <t>Justin Hamilton</t>
   </si>
   <si>
-    <t>2014-12-26</t>
-  </si>
-  <si>
-    <t>2014-12-27</t>
-  </si>
-  <si>
     <t>Raptors</t>
   </si>
   <si>
     <t>Landry Fields</t>
   </si>
   <si>
-    <t>2015-01-28</t>
-  </si>
-  <si>
-    <t>2015-03-30</t>
-  </si>
-  <si>
     <t>Gorgui Dieng</t>
   </si>
   <si>
-    <t>2015-04-01</t>
-  </si>
-  <si>
     <t>Rodney Hood</t>
   </si>
   <si>
-    <t>2015-04-12</t>
-  </si>
-  <si>
     <t>Suns</t>
   </si>
   <si>
     <t>Reggie Bullock</t>
   </si>
   <si>
-    <t>2015-10-28</t>
-  </si>
-  <si>
-    <t>2015-11-04</t>
-  </si>
-  <si>
     <t>Rockets</t>
   </si>
   <si>
     <t>Patrick Beverley</t>
   </si>
   <si>
-    <t>2015-11-12</t>
-  </si>
-  <si>
     <t>Victor Oladipo</t>
   </si>
   <si>
-    <t>2015-11-28</t>
-  </si>
-  <si>
     <t>Nuggets</t>
   </si>
   <si>
     <t>Gary Harris</t>
   </si>
   <si>
-    <t>2015-12-16</t>
-  </si>
-  <si>
     <t>Shane Larkin</t>
   </si>
   <si>
-    <t>2016-01-16</t>
-  </si>
-  <si>
     <t>Trevor Booker</t>
   </si>
   <si>
-    <t>2016-01-25</t>
-  </si>
-  <si>
     <t>Pelicans</t>
   </si>
   <si>
-    <t>2016-01-27</t>
-  </si>
-  <si>
     <t>Thunder</t>
   </si>
   <si>
     <t>Cameron Payne</t>
   </si>
   <si>
-    <t>2016-02-05</t>
-  </si>
-  <si>
     <t>Knicks</t>
   </si>
   <si>
     <t>Lance Thomas</t>
   </si>
   <si>
-    <t>2016-03-12</t>
-  </si>
-  <si>
     <t>76ers</t>
   </si>
   <si>
@@ -392,184 +254,94 @@
     <t>Robert Covington</t>
   </si>
   <si>
-    <t>2016-04-07</t>
-  </si>
-  <si>
     <t>Aaron Gordon</t>
   </si>
   <si>
-    <t>2016-04-10</t>
-  </si>
-  <si>
-    <t>2016-04-11</t>
-  </si>
-  <si>
     <t>Tyson Chandler</t>
   </si>
   <si>
-    <t>2016-06-05</t>
-  </si>
-  <si>
-    <t>2016-10-12</t>
-  </si>
-  <si>
     <t>Ronnie Price</t>
   </si>
   <si>
-    <t>2016-10-24</t>
-  </si>
-  <si>
     <t>Kay Felder</t>
   </si>
   <si>
-    <t>2016-11-01</t>
-  </si>
-  <si>
     <t>Bulls</t>
   </si>
   <si>
     <t>Doug McDermott</t>
   </si>
   <si>
-    <t>2016-11-07</t>
-  </si>
-  <si>
     <t>Larry Nance Jr.</t>
   </si>
   <si>
-    <t>2016-11-12</t>
-  </si>
-  <si>
     <t>Isaiah Whitehead</t>
   </si>
   <si>
-    <t>2016-11-18</t>
-  </si>
-  <si>
     <t>Semaj Christon</t>
   </si>
   <si>
-    <t>2016-12-11</t>
-  </si>
-  <si>
     <t>Clippers</t>
   </si>
   <si>
     <t>Austin Rivers</t>
   </si>
   <si>
-    <t>2016-12-18</t>
-  </si>
-  <si>
     <t>Wizards</t>
   </si>
   <si>
     <t>Kelly Oubre</t>
   </si>
   <si>
-    <t>2016-12-23</t>
-  </si>
-  <si>
     <t>Richaun Holmes</t>
   </si>
   <si>
-    <t>2016-12-26</t>
-  </si>
-  <si>
     <t>Mirza Teletovic</t>
   </si>
   <si>
-    <t>2017-01-16</t>
-  </si>
-  <si>
     <t>Steven Adams</t>
   </si>
   <si>
-    <t>2017-03-10</t>
-  </si>
-  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>2017-04-16</t>
-  </si>
-  <si>
     <t>Blazers</t>
   </si>
   <si>
     <t>Tim Quarterman</t>
   </si>
   <si>
-    <t>2017-11-17</t>
-  </si>
-  <si>
     <t>Ivan Rabb</t>
   </si>
   <si>
-    <t>2017-12-06</t>
-  </si>
-  <si>
     <t>Patrick McCaw</t>
   </si>
   <si>
-    <t>2017-12-09</t>
-  </si>
-  <si>
-    <t>2017-12-11</t>
-  </si>
-  <si>
     <t>Raul Neto</t>
   </si>
   <si>
-    <t>2017-12-14</t>
-  </si>
-  <si>
     <t>Nick Young</t>
   </si>
   <si>
-    <t>2017-12-18</t>
-  </si>
-  <si>
     <t>Derrick Favors</t>
   </si>
   <si>
-    <t>2018-01-18</t>
-  </si>
-  <si>
     <t>Kris Dunn</t>
   </si>
   <si>
-    <t>2018-01-24</t>
-  </si>
-  <si>
     <t>Al Horford</t>
   </si>
   <si>
-    <t>2018-03-09</t>
-  </si>
-  <si>
     <t>Jaylen Brown</t>
   </si>
   <si>
     <t>Terrance Ferguson</t>
   </si>
   <si>
-    <t>2018-03-28</t>
-  </si>
-  <si>
-    <t>2018-04-06</t>
-  </si>
-  <si>
     <t>Ian Mahinmi</t>
   </si>
   <si>
-    <t>2018-04-10</t>
-  </si>
-  <si>
     <t>Alex Abrines</t>
-  </si>
-  <si>
-    <t>2018-05-26</t>
   </si>
   <si>
     <t>Markieff Morris</t>
@@ -687,8 +459,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -755,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -806,6 +579,20 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,13 +909,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0DFF4-C384-420E-823F-E68311A3F994}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" style="23" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
@@ -1141,11 +928,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>209</v>
+      <c r="A1" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1154,36 +941,36 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
+      <c r="A2" s="5">
+        <v>40532</v>
       </c>
       <c r="B2" s="5">
         <v>40564</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="15">
         <v>1</v>
@@ -1200,17 +987,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="5">
+        <v>40599</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="15">
         <v>1</v>
@@ -1227,17 +1014,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
+      <c r="A4" s="5">
+        <v>40600</v>
       </c>
       <c r="B4" s="5">
         <v>40606</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -1254,17 +1041,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
+      <c r="A5" s="5">
+        <v>40609</v>
       </c>
       <c r="B5" s="5">
         <v>40614</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
@@ -1283,17 +1070,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
+      <c r="A6" s="5">
+        <v>40644</v>
       </c>
       <c r="B6" s="5">
         <v>40646</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" s="15">
         <v>1</v>
@@ -1310,17 +1097,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
+      <c r="A7" s="5">
+        <v>40921</v>
       </c>
       <c r="B7" s="5">
         <v>40921</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -1337,17 +1124,17 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
+      <c r="A8" s="5">
+        <v>40926</v>
       </c>
       <c r="B8" s="5">
         <v>40927</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5">
         <v>40915</v>
@@ -1367,17 +1154,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
+      <c r="A9" s="5">
+        <v>40945</v>
       </c>
       <c r="B9" s="5">
         <v>40983</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -1396,17 +1183,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
+      <c r="A10" s="5">
+        <v>40947</v>
       </c>
       <c r="B10" s="5">
         <v>40954</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F10" s="15">
         <v>1</v>
@@ -1423,17 +1210,17 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
+      <c r="A11" s="5">
+        <v>40971</v>
       </c>
       <c r="B11" s="5">
         <v>40981</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1452,17 +1239,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
+      <c r="A12" s="5">
+        <v>40981</v>
       </c>
       <c r="B12" s="5">
         <v>40982</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
@@ -1479,17 +1266,17 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
+      <c r="A13" s="5">
+        <v>40998</v>
       </c>
       <c r="B13" s="5">
         <v>40999</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F13" s="15">
         <v>1</v>
@@ -1506,17 +1293,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
+      <c r="A14" s="5">
+        <v>41003</v>
       </c>
       <c r="B14" s="5">
         <v>41017</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F14" s="15">
         <v>1</v>
@@ -1533,17 +1320,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
+      <c r="A15" s="5">
+        <v>41007</v>
       </c>
       <c r="B15" s="5">
         <v>41010</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
@@ -1560,17 +1347,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
+      <c r="A16" s="5">
+        <v>41011</v>
       </c>
       <c r="B16" s="5">
         <v>41021</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
@@ -1587,17 +1374,17 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>45</v>
+      <c r="A17" s="5">
+        <v>41015</v>
       </c>
       <c r="B17" s="5">
         <v>41019</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E17" s="5">
         <v>40893</v>
@@ -1619,17 +1406,17 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>45</v>
+      <c r="A18" s="5">
+        <v>41015</v>
       </c>
       <c r="B18" s="5">
         <v>41025</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5">
         <v>40989</v>
@@ -1658,10 +1445,10 @@
         <v>41026</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5">
         <v>40975</v>
@@ -1683,17 +1470,17 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>50</v>
+      <c r="A20" s="5">
+        <v>41216</v>
       </c>
       <c r="B20" s="5">
         <v>41220</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -1712,17 +1499,17 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
+      <c r="A21" s="5">
+        <v>41243</v>
       </c>
       <c r="B21" s="5">
         <v>41246</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5">
         <v>40920</v>
@@ -1744,17 +1531,17 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>55</v>
+      <c r="A22" s="5">
+        <v>41258</v>
       </c>
       <c r="B22" s="5">
         <v>41259</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5">
         <v>40897</v>
@@ -1774,17 +1561,17 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>57</v>
+      <c r="A23" s="5">
+        <v>41276</v>
       </c>
       <c r="B23" s="5">
         <v>41306</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
@@ -1801,17 +1588,17 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>60</v>
+      <c r="A24" s="5">
+        <v>41282</v>
       </c>
       <c r="B24" s="5">
         <v>41287</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E24" s="5">
         <v>41247</v>
@@ -1833,17 +1620,17 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>63</v>
+      <c r="A25" s="5">
+        <v>41302</v>
       </c>
       <c r="B25" s="5">
         <v>41316</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F25" s="15">
         <v>1</v>
@@ -1860,17 +1647,17 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>65</v>
+      <c r="A26" s="5">
+        <v>41353</v>
       </c>
       <c r="B26" s="5">
         <v>41362</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F26" s="15">
         <v>1</v>
@@ -1889,17 +1676,17 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>68</v>
+      <c r="A27" s="5">
+        <v>41363</v>
       </c>
       <c r="B27" s="5">
         <v>41368</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F27" s="15">
         <v>1</v>
@@ -1916,17 +1703,17 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>71</v>
+      <c r="A28" s="5">
+        <v>41373</v>
       </c>
       <c r="B28" s="5">
         <v>41379</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E28" s="5">
         <v>41008</v>
@@ -1948,17 +1735,17 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>73</v>
+      <c r="A29" s="5">
+        <v>41647</v>
       </c>
       <c r="B29" s="5">
         <v>41661</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E29" s="5">
         <v>41611</v>
@@ -1980,17 +1767,17 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>74</v>
+      <c r="A30" s="5">
+        <v>41692</v>
       </c>
       <c r="B30" s="5">
         <v>41696</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E30" s="5">
         <v>41591</v>
@@ -2012,17 +1799,17 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>76</v>
+      <c r="A31" s="5">
+        <v>41940</v>
       </c>
       <c r="B31" s="5">
         <v>41941</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E31" s="5">
         <v>41590</v>
@@ -2042,17 +1829,17 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>78</v>
+      <c r="A32" s="5">
+        <v>41960</v>
       </c>
       <c r="B32" s="5">
         <v>41964</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" s="5">
         <v>41618</v>
@@ -2074,17 +1861,17 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>79</v>
+      <c r="A33" s="5">
+        <v>41996</v>
       </c>
       <c r="B33" s="5">
         <v>42012</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F33" s="15">
         <v>1</v>
@@ -2101,17 +1888,17 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>82</v>
+      <c r="A34" s="5">
+        <v>41999</v>
       </c>
       <c r="B34" s="5">
         <v>42019</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34" s="5">
         <v>41709</v>
@@ -2133,17 +1920,17 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>83</v>
+      <c r="A35" s="5">
+        <v>42000</v>
       </c>
       <c r="B35" s="5">
         <v>42006</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F35" s="15">
         <v>1</v>
@@ -2162,17 +1949,17 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>86</v>
+      <c r="A36" s="5">
+        <v>42032</v>
       </c>
       <c r="B36" s="5">
         <v>42037</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E36" s="5">
         <v>41741</v>
@@ -2192,17 +1979,17 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>87</v>
+      <c r="A37" s="5">
+        <v>42093</v>
       </c>
       <c r="B37" s="5">
         <v>42186</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F37" s="15">
         <v>1</v>
@@ -2219,17 +2006,17 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>89</v>
+      <c r="A38" s="5">
+        <v>42095</v>
       </c>
       <c r="B38" s="5">
         <v>42098</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E38" s="5">
         <v>42006</v>
@@ -2251,17 +2038,17 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>89</v>
+      <c r="A39" s="5">
+        <v>42095</v>
       </c>
       <c r="B39" s="5">
         <v>42101</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E39" s="5">
         <v>42077</v>
@@ -2283,17 +2070,17 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>91</v>
+      <c r="A40" s="5">
+        <v>42106</v>
       </c>
       <c r="B40" s="5">
         <v>42186</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F40" s="15">
         <v>1</v>
@@ -2310,17 +2097,17 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>94</v>
+      <c r="A41" s="5">
+        <v>42305</v>
       </c>
       <c r="B41" s="5">
         <v>42317</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F41" s="15">
         <v>1</v>
@@ -2339,17 +2126,17 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>95</v>
+      <c r="A42" s="5">
+        <v>42312</v>
       </c>
       <c r="B42" s="5">
         <v>42319</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F42" s="15">
         <v>1</v>
@@ -2368,17 +2155,17 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>98</v>
+      <c r="A43" s="5">
+        <v>42320</v>
       </c>
       <c r="B43" s="5">
         <v>42326</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F43" s="15">
         <v>1</v>
@@ -2395,17 +2182,17 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>100</v>
+      <c r="A44" s="5">
+        <v>42336</v>
       </c>
       <c r="B44" s="5">
         <v>42349</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="F44" s="15">
         <v>1</v>
@@ -2424,17 +2211,17 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>103</v>
+      <c r="A45" s="5">
+        <v>42354</v>
       </c>
       <c r="B45" s="5">
         <v>42361</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F45" s="15">
         <v>1</v>
@@ -2451,17 +2238,17 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>105</v>
+      <c r="A46" s="5">
+        <v>42385</v>
       </c>
       <c r="B46" s="5">
         <v>42387</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="F46" s="15">
         <v>1</v>
@@ -2480,17 +2267,17 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>107</v>
+      <c r="A47" s="5">
+        <v>42394</v>
       </c>
       <c r="B47" s="5">
         <v>42399</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E47" s="5">
         <v>42034</v>
@@ -2512,17 +2299,17 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>109</v>
+      <c r="A48" s="5">
+        <v>42396</v>
       </c>
       <c r="B48" s="5">
         <v>42401</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F48" s="15">
         <v>1</v>
@@ -2541,17 +2328,17 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>112</v>
+      <c r="A49" s="5">
+        <v>42405</v>
       </c>
       <c r="B49" s="5">
         <v>42409</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E49" s="5">
         <v>42060</v>
@@ -2573,17 +2360,17 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>115</v>
+      <c r="A50" s="5">
+        <v>42441</v>
       </c>
       <c r="B50" s="5">
         <v>42446</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="E50" s="5">
         <v>42383</v>
@@ -2605,17 +2392,17 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>115</v>
+      <c r="A51" s="5">
+        <v>42441</v>
       </c>
       <c r="B51" s="5">
         <v>42452</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="E51" s="5">
         <v>42303</v>
@@ -2637,17 +2424,17 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>119</v>
+      <c r="A52" s="5">
+        <v>42467</v>
       </c>
       <c r="B52" s="5">
         <v>42473</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E52" s="5">
         <v>42346</v>
@@ -2667,17 +2454,17 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>121</v>
+      <c r="A53" s="5">
+        <v>42470</v>
       </c>
       <c r="B53" s="5">
         <v>42552</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F53" s="15">
         <v>1</v>
@@ -2694,17 +2481,17 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>122</v>
+      <c r="A54" s="5">
+        <v>42471</v>
       </c>
       <c r="B54" s="5">
         <v>42552</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F54" s="15">
         <v>1</v>
@@ -2721,17 +2508,17 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>124</v>
+      <c r="A55" s="5">
+        <v>42526</v>
       </c>
       <c r="B55" s="5">
         <v>42531</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E55" s="5">
         <v>42406</v>
@@ -2753,17 +2540,17 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>125</v>
+      <c r="A56" s="5">
+        <v>42655</v>
       </c>
       <c r="B56" s="5">
         <v>42656</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="F56" s="15">
         <v>1</v>
@@ -2782,17 +2569,17 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>127</v>
+      <c r="A57" s="5">
+        <v>42667</v>
       </c>
       <c r="B57" s="5">
         <v>42672</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="F57" s="15">
         <v>1</v>
@@ -2809,17 +2596,17 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>129</v>
+      <c r="A58" s="5">
+        <v>42675</v>
       </c>
       <c r="B58" s="5">
         <v>42678</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E58" s="5">
         <v>42366</v>
@@ -2841,17 +2628,17 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>132</v>
+      <c r="A59" s="5">
+        <v>42681</v>
       </c>
       <c r="B59" s="5">
         <v>42684</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="E59" s="5">
         <v>42451</v>
@@ -2873,17 +2660,17 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
-        <v>134</v>
+      <c r="A60" s="5">
+        <v>42686</v>
       </c>
       <c r="B60" s="5">
         <v>42689</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F60" s="15">
         <v>1</v>
@@ -2902,17 +2689,17 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>136</v>
+      <c r="A61" s="5">
+        <v>42692</v>
       </c>
       <c r="B61" s="5">
         <v>42696</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="F61" s="15">
         <v>1</v>
@@ -2929,17 +2716,17 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>138</v>
+      <c r="A62" s="5">
+        <v>42715</v>
       </c>
       <c r="B62" s="5">
         <v>42718</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="E62" s="5">
         <v>42359</v>
@@ -2961,17 +2748,17 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>141</v>
+      <c r="A63" s="5">
+        <v>42722</v>
       </c>
       <c r="B63" s="5">
         <v>42723</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="F63" s="15">
         <v>1</v>
@@ -2988,17 +2775,17 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>144</v>
+      <c r="A64" s="5">
+        <v>42727</v>
       </c>
       <c r="B64" s="5">
         <v>42739</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="E64" s="5">
         <v>42441</v>
@@ -3018,17 +2805,17 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>146</v>
+      <c r="A65" s="5">
+        <v>42730</v>
       </c>
       <c r="B65" s="5">
         <v>42734</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="E65" s="5">
         <v>42390</v>
@@ -3050,17 +2837,17 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>148</v>
+      <c r="A66" s="5">
+        <v>42751</v>
       </c>
       <c r="B66" s="5">
         <v>42758</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="F66" s="15">
         <v>1</v>
@@ -3077,17 +2864,17 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>150</v>
+      <c r="A67" s="5">
+        <v>42804</v>
       </c>
       <c r="B67" s="5">
         <v>42807</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="E67" s="5">
         <v>42452</v>
@@ -3109,17 +2896,17 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>152</v>
+      <c r="A68" s="5">
+        <v>42841</v>
       </c>
       <c r="B68" s="5">
         <v>42844</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="E68" s="5">
         <v>42750</v>
@@ -3139,17 +2926,17 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>155</v>
+      <c r="A69" s="5">
+        <v>43056</v>
       </c>
       <c r="B69" s="5">
         <v>43063</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="F69" s="15">
         <v>1</v>
@@ -3168,17 +2955,17 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
-        <v>157</v>
+      <c r="A70" s="5">
+        <v>43075</v>
       </c>
       <c r="B70" s="5">
         <v>43080</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="F70" s="15">
         <v>1</v>
@@ -3195,17 +2982,17 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
-        <v>159</v>
+      <c r="A71" s="5">
+        <v>43078</v>
       </c>
       <c r="B71" s="5">
         <v>43084</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F71" s="15">
         <v>1</v>
@@ -3224,17 +3011,17 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
-        <v>160</v>
+      <c r="A72" s="5">
+        <v>43080</v>
       </c>
       <c r="B72" s="5">
         <v>43115</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="E72" s="5">
         <v>42823</v>
@@ -3256,17 +3043,17 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
-        <v>162</v>
+      <c r="A73" s="5">
+        <v>43083</v>
       </c>
       <c r="B73" s="5">
         <v>43086</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="F73" s="15">
         <v>1</v>
@@ -3283,17 +3070,17 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>164</v>
+      <c r="A74" s="5">
+        <v>43087</v>
       </c>
       <c r="B74" s="5">
         <v>43089</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="E74" s="5">
         <v>42724</v>
@@ -3315,17 +3102,17 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>166</v>
+      <c r="A75" s="5">
+        <v>43118</v>
       </c>
       <c r="B75" s="5">
         <v>43145</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="E75" s="5">
         <v>43098</v>
@@ -3347,17 +3134,17 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>168</v>
+      <c r="A76" s="5">
+        <v>43124</v>
       </c>
       <c r="B76" s="5">
         <v>43127</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="E76" s="5">
         <v>42762</v>
@@ -3379,17 +3166,17 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
-        <v>170</v>
+      <c r="A77" s="5">
+        <v>43168</v>
       </c>
       <c r="B77" s="5">
         <v>43184</v>
       </c>
       <c r="C77" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="E77" s="5">
         <v>43090</v>
@@ -3411,17 +3198,17 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
-        <v>170</v>
+      <c r="A78" s="5">
+        <v>43168</v>
       </c>
       <c r="B78" s="5">
         <v>43178</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E78" s="5">
         <v>43085</v>
@@ -3443,17 +3230,17 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>170</v>
+      <c r="A79" s="5">
+        <v>43168</v>
       </c>
       <c r="B79" s="5">
         <v>43171</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="F79" s="15">
         <v>1</v>
@@ -3470,17 +3257,17 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>173</v>
+      <c r="A80" s="5">
+        <v>43187</v>
       </c>
       <c r="B80" s="5">
         <v>43189</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F80" s="15">
         <v>1</v>
@@ -3497,17 +3284,17 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>174</v>
+      <c r="A81" s="5">
+        <v>43196</v>
       </c>
       <c r="B81" s="5">
         <v>43200</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="E81" s="5">
         <v>43081</v>
@@ -3527,17 +3314,17 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>176</v>
+      <c r="A82" s="5">
+        <v>43200</v>
       </c>
       <c r="B82" s="5">
         <v>43205</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="F82" s="15">
         <v>1</v>
@@ -3554,17 +3341,17 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>178</v>
+      <c r="A83" s="5">
+        <v>43246</v>
       </c>
       <c r="B83" s="5">
         <v>43251</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F83" s="15">
         <v>1</v>
@@ -3588,10 +3375,10 @@
         <v>43406</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="F84" s="15">
         <v>1</v>
@@ -3615,10 +3402,10 @@
         <v>43395</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="E85" s="5">
         <v>43196</v>
@@ -3645,10 +3432,10 @@
         <v>43405</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="E86" s="5">
         <v>43061</v>
@@ -3677,10 +3464,10 @@
         <v>43425</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="F87" s="15">
         <v>1</v>
@@ -3704,10 +3491,10 @@
         <v>43441</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E88" s="5">
         <v>43428</v>
@@ -3734,10 +3521,10 @@
         <v>43482</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="F89" s="15">
         <v>1</v>
@@ -3763,10 +3550,10 @@
         <v>43490</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="F90" s="15">
         <v>1</v>
@@ -3790,10 +3577,10 @@
         <v>43509</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="F91" s="15">
         <v>1</v>
@@ -3817,10 +3604,10 @@
         <v>43521</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="F92" s="15">
         <v>1</v>
@@ -3846,10 +3633,10 @@
         <v>43524</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="F93" s="15">
         <v>1</v>
@@ -3875,10 +3662,10 @@
         <v>43532</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="E94" s="5">
         <v>43435</v>
@@ -3907,10 +3694,10 @@
         <v>43647</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="E95" s="5">
         <v>43469</v>
@@ -3937,10 +3724,10 @@
         <v>43548</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F96" s="15">
         <v>1</v>
@@ -3966,10 +3753,10 @@
         <v>43550</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="E97" s="5">
         <v>43416</v>
@@ -3998,10 +3785,10 @@
         <v>43647</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="F98" s="15">
         <v>1</v>
@@ -4025,10 +3812,10 @@
         <v>43560</v>
       </c>
       <c r="C99" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="F99" s="15">
         <v>1</v>
@@ -4052,10 +3839,10 @@
         <v>43568</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="F100" s="15">
         <v>1</v>
@@ -4081,10 +3868,10 @@
         <v>43792</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D101" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="F101" s="15">
         <v>1</v>
@@ -4108,10 +3895,10 @@
         <v>43796</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D102" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="E102" s="5">
         <v>43454</v>
@@ -4138,10 +3925,10 @@
         <v>43784</v>
       </c>
       <c r="C103" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="F103" s="15">
         <v>1</v>
@@ -4165,10 +3952,10 @@
         <v>43783</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="E104" s="5">
         <v>43449</v>
@@ -4195,10 +3982,10 @@
         <v>43787</v>
       </c>
       <c r="C105" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="F105" s="15">
         <v>1</v>
@@ -4224,10 +4011,10 @@
         <v>43816</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D106" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="E106" s="5">
         <v>43783</v>
@@ -4256,10 +4043,10 @@
         <v>43819</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D107" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="F107" s="15">
         <v>1</v>
@@ -4283,10 +4070,10 @@
         <v>43866</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D108" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="E108" s="5">
         <v>43565</v>
@@ -4313,10 +4100,10 @@
         <v>43850</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D109" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="F109" s="15">
         <v>1</v>
@@ -4340,10 +4127,10 @@
         <v>43852</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="F110" s="15">
         <v>1</v>
@@ -4367,10 +4154,10 @@
         <v>43854</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="E111" s="5">
         <v>43540</v>
@@ -4397,10 +4184,10 @@
         <v>43869</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="F112" s="15">
         <v>1</v>
@@ -4424,10 +4211,10 @@
         <v>43869</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="F113" s="15">
         <v>1</v>
@@ -4451,10 +4238,10 @@
         <v>43873</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D114" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="F114" s="15">
         <v>1</v>
@@ -4471,7 +4258,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -4482,7 +4269,7 @@
       <c r="I115" s="9"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4493,7 +4280,7 @@
       <c r="I116" s="9"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -4504,7 +4291,7 @@
       <c r="I117" s="9"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="8"/>
+      <c r="A118" s="22"/>
       <c r="B118" s="8"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4515,7 +4302,7 @@
       <c r="I118" s="9"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="8"/>
+      <c r="A119" s="22"/>
       <c r="B119" s="8"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4526,7 +4313,7 @@
       <c r="I119" s="9"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="8"/>
+      <c r="A120" s="22"/>
       <c r="B120" s="8"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4537,443 +4324,443 @@
       <c r="I120" s="9"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
+      <c r="A121" s="19"/>
       <c r="B121" s="5"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
+      <c r="A122" s="19"/>
       <c r="B122" s="5"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
+      <c r="A123" s="19"/>
       <c r="B123" s="5"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
+      <c r="A124" s="19"/>
       <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
+      <c r="A125" s="19"/>
       <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
+      <c r="A126" s="19"/>
       <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
+      <c r="A127" s="19"/>
       <c r="B127" s="5"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
+      <c r="A128" s="19"/>
       <c r="B128" s="5"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
+      <c r="A129" s="19"/>
       <c r="B129" s="5"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
+      <c r="A130" s="19"/>
       <c r="B130" s="5"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
+      <c r="A131" s="19"/>
       <c r="B131" s="5"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
+      <c r="A132" s="19"/>
       <c r="B132" s="5"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
+      <c r="A133" s="19"/>
       <c r="B133" s="5"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
+      <c r="A134" s="19"/>
       <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="5"/>
+      <c r="A135" s="19"/>
       <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
+      <c r="A136" s="19"/>
       <c r="B136" s="5"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
+      <c r="A137" s="19"/>
       <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
+      <c r="A138" s="19"/>
       <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
+      <c r="A139" s="19"/>
       <c r="B139" s="5"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
+      <c r="A140" s="19"/>
       <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
+      <c r="A141" s="19"/>
       <c r="B141" s="5"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
+      <c r="A142" s="19"/>
       <c r="B142" s="5"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="5"/>
+      <c r="A143" s="19"/>
       <c r="B143" s="5"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
+      <c r="A144" s="19"/>
       <c r="B144" s="5"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
+      <c r="A145" s="19"/>
       <c r="B145" s="5"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
+      <c r="A146" s="19"/>
       <c r="B146" s="5"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
+      <c r="A147" s="19"/>
       <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
+      <c r="A148" s="19"/>
       <c r="B148" s="5"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
+      <c r="A149" s="19"/>
       <c r="B149" s="5"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
+      <c r="A150" s="19"/>
       <c r="B150" s="5"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
+      <c r="A151" s="19"/>
       <c r="B151" s="5"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
+      <c r="A152" s="19"/>
       <c r="B152" s="5"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
+      <c r="A153" s="19"/>
       <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
+      <c r="A154" s="19"/>
       <c r="B154" s="5"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
+      <c r="A155" s="19"/>
       <c r="B155" s="5"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
+      <c r="A156" s="19"/>
       <c r="B156" s="5"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
+      <c r="A157" s="19"/>
       <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
+      <c r="A158" s="19"/>
       <c r="B158" s="5"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
+      <c r="A159" s="19"/>
       <c r="B159" s="5"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
+      <c r="A160" s="19"/>
       <c r="B160" s="5"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="5"/>
+      <c r="A161" s="19"/>
       <c r="B161" s="5"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="5"/>
+      <c r="A162" s="19"/>
       <c r="B162" s="5"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="5"/>
+      <c r="A163" s="19"/>
       <c r="B163" s="5"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="5"/>
+      <c r="A164" s="19"/>
       <c r="B164" s="5"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="5"/>
+      <c r="A165" s="19"/>
       <c r="B165" s="5"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="5"/>
+      <c r="A166" s="19"/>
       <c r="B166" s="5"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="5"/>
+      <c r="A167" s="19"/>
       <c r="B167" s="5"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="5"/>
+      <c r="A168" s="19"/>
       <c r="B168" s="5"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="5"/>
+      <c r="A169" s="19"/>
       <c r="B169" s="5"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="5"/>
+      <c r="A170" s="19"/>
       <c r="B170" s="5"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="5"/>
+      <c r="A171" s="19"/>
       <c r="B171" s="5"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="5"/>
+      <c r="A172" s="19"/>
       <c r="B172" s="5"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="5"/>
+      <c r="A173" s="19"/>
       <c r="B173" s="5"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="5"/>
+      <c r="A174" s="19"/>
       <c r="B174" s="5"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="5"/>
+      <c r="A175" s="19"/>
       <c r="B175" s="5"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="5"/>
+      <c r="A176" s="19"/>
       <c r="B176" s="5"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="5"/>
+      <c r="A177" s="19"/>
       <c r="B177" s="5"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="5"/>
+      <c r="A178" s="19"/>
       <c r="B178" s="5"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="5"/>
+      <c r="A179" s="19"/>
       <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="5"/>
+      <c r="A180" s="19"/>
       <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="5"/>
+      <c r="A181" s="19"/>
       <c r="B181" s="5"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="5"/>
+      <c r="A182" s="19"/>
       <c r="B182" s="5"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="5"/>
+      <c r="A183" s="19"/>
       <c r="B183" s="5"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="5"/>
+      <c r="A184" s="19"/>
       <c r="B184" s="5"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="5"/>
+      <c r="A185" s="19"/>
       <c r="B185" s="5"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="5"/>
+      <c r="A186" s="19"/>
       <c r="B186" s="5"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="5"/>
+      <c r="A187" s="19"/>
       <c r="B187" s="5"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="5"/>
+      <c r="A188" s="19"/>
       <c r="B188" s="5"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="5"/>
+      <c r="A189" s="19"/>
       <c r="B189" s="5"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="5"/>
+      <c r="A190" s="19"/>
       <c r="B190" s="5"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="5"/>
+      <c r="A191" s="19"/>
       <c r="B191" s="5"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="5"/>
+      <c r="A192" s="19"/>
       <c r="B192" s="5"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="5"/>
+      <c r="A193" s="19"/>
       <c r="B193" s="5"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="5"/>
+      <c r="A194" s="19"/>
       <c r="B194" s="5"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="5"/>
+      <c r="A195" s="19"/>
       <c r="B195" s="5"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="5"/>
+      <c r="A196" s="19"/>
       <c r="B196" s="5"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="5"/>
+      <c r="A197" s="19"/>
       <c r="B197" s="5"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="5"/>
+      <c r="A198" s="19"/>
       <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="5"/>
+      <c r="A199" s="19"/>
       <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="5"/>
+      <c r="A200" s="19"/>
       <c r="B200" s="5"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="5"/>
+      <c r="A201" s="19"/>
       <c r="B201" s="5"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="5"/>
+      <c r="A202" s="19"/>
       <c r="B202" s="5"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="5"/>
+      <c r="A203" s="19"/>
       <c r="B203" s="5"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="5"/>
+      <c r="A204" s="19"/>
       <c r="B204" s="5"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="5"/>
+      <c r="A205" s="19"/>
       <c r="B205" s="5"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="5"/>
+      <c r="A206" s="19"/>
       <c r="B206" s="5"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="5"/>
+      <c r="A207" s="19"/>
       <c r="B207" s="5"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="5"/>
+      <c r="A208" s="19"/>
       <c r="B208" s="5"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="5"/>
+      <c r="A209" s="19"/>
       <c r="B209" s="5"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="5"/>
+      <c r="A210" s="19"/>
       <c r="B210" s="5"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="5"/>
+      <c r="A211" s="19"/>
       <c r="B211" s="5"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="5"/>
+      <c r="A212" s="19"/>
       <c r="B212" s="5"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="5"/>
+      <c r="A213" s="19"/>
       <c r="B213" s="5"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="5"/>
+      <c r="A214" s="19"/>
       <c r="B214" s="5"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="5"/>
+      <c r="A215" s="19"/>
       <c r="B215" s="5"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="5"/>
+      <c r="A216" s="19"/>
       <c r="B216" s="5"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="5"/>
+      <c r="A217" s="19"/>
       <c r="B217" s="5"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="5"/>
+      <c r="A218" s="19"/>
       <c r="B218" s="5"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="5"/>
+      <c r="A219" s="19"/>
       <c r="B219" s="5"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="5"/>
+      <c r="A220" s="19"/>
       <c r="B220" s="5"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="5"/>
+      <c r="A221" s="19"/>
       <c r="B221" s="5"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="5"/>
+      <c r="A222" s="19"/>
       <c r="B222" s="5"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="5"/>
+      <c r="A223" s="19"/>
       <c r="B223" s="5"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="5"/>
+      <c r="A224" s="19"/>
       <c r="B224" s="5"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="5"/>
+      <c r="A225" s="19"/>
       <c r="B225" s="5"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="5"/>
+      <c r="A226" s="19"/>
       <c r="B226" s="5"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="5"/>
+      <c r="A227" s="19"/>
       <c r="B227" s="5"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="5"/>
+      <c r="A228" s="19"/>
       <c r="B228" s="5"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="5"/>
+      <c r="A229" s="19"/>
       <c r="B229" s="5"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="5"/>
+      <c r="A230" s="19"/>
       <c r="B230" s="5"/>
     </row>
   </sheetData>

--- a/Pre and Post Concussion Injury Data.xlsx
+++ b/Pre and Post Concussion Injury Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tylerfue\Desktop\Pacers Internship Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD47B686-C388-4C90-9CF0-B571A995618F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED84C6DC-EA09-4EA1-822B-E3A1166FF15B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7E75CC67-1FB6-4A52-A944-DA10869B5194}"/>
   </bookViews>
@@ -461,7 +461,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -579,20 +579,20 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0DFF4-C384-420E-823F-E68311A3F994}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
